--- a/Biogeochem/data/Respiration_Example.xlsx
+++ b/Biogeochem/data/Respiration_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhao078/Library/Group Containers/UBF8T346G9.OneDriveStandaloneSuite/OneDrive - PNNL.noindex/OneDrive - PNNL/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/qian_zhao_pnnl_gov/Documents/Documents/MONet/Community Science Meeting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2797E0E5-0746-C448-BA9C-A460EF02A458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2797E0E5-0746-C448-BA9C-A460EF02A458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB093E25-0240-4547-864E-D6F954DC6754}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="900" windowWidth="23220" windowHeight="14000" xr2:uid="{8C4F1491-A35D-B443-BACD-13F4ADC52BE5}"/>
+    <workbookView xWindow="43700" yWindow="3700" windowWidth="23220" windowHeight="14000" xr2:uid="{8C4F1491-A35D-B443-BACD-13F4ADC52BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Example data" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Example data'!$E$4</definedName>
@@ -46,7 +46,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,10 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="31">
-  <si>
-    <t>CO2 = A*(1-exp(-k*t))</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>Fitting</t>
-  </si>
-  <si>
-    <t>sqr err</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.0 </t>
@@ -159,7 +153,16 @@
     <t xml:space="preserve"> 67.0 </t>
   </si>
   <si>
-    <t>Sum of sq er</t>
+    <t>CO2 = B+A*(1-exp(-k*t))</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Sum of Chi sq</t>
+  </si>
+  <si>
+    <t>Chi sq</t>
   </si>
 </sst>
 </file>
@@ -514,175 +517,175 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61802816575304798</c:v>
+                  <c:v>0.58684999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61802816575304798</c:v>
+                  <c:v>0.58684999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67421254445787049</c:v>
+                  <c:v>0.64019999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67421254445787049</c:v>
+                  <c:v>0.64019999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89895005927716076</c:v>
+                  <c:v>0.85360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.89895005927716076</c:v>
+                  <c:v>0.85360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0113188166868059</c:v>
+                  <c:v>0.96030000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98322662733439448</c:v>
+                  <c:v>0.93362499999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.348425088915741</c:v>
+                  <c:v>1.2804</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3765172782681525</c:v>
+                  <c:v>1.3070750000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5169782250302086</c:v>
+                  <c:v>1.4404499999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5731626037350313</c:v>
+                  <c:v>1.4938</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6012547930874428</c:v>
+                  <c:v>1.5204749999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6855313611446765</c:v>
+                  <c:v>1.6004999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6855313611446765</c:v>
+                  <c:v>1.6004999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7417157398494989</c:v>
+                  <c:v>1.6538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6855313611446765</c:v>
+                  <c:v>1.6004999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6855313611446765</c:v>
+                  <c:v>1.6004999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6855313611446765</c:v>
+                  <c:v>1.6004999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7417157398494989</c:v>
+                  <c:v>1.6538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7417157398494989</c:v>
+                  <c:v>1.6538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.8821766866115552</c:v>
+                  <c:v>1.7872250000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7417157398494989</c:v>
+                  <c:v>1.6538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8821766866115552</c:v>
+                  <c:v>1.7872250000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6855313611446765</c:v>
+                  <c:v>1.6004999999999998</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7417157398494989</c:v>
+                  <c:v>1.6538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6855313611446765</c:v>
+                  <c:v>1.6004999999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7417157398494989</c:v>
+                  <c:v>1.6538499999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.8821766866115552</c:v>
+                  <c:v>1.7872250000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.5731626037350313</c:v>
+                  <c:v>1.4938</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8821766866115552</c:v>
+                  <c:v>1.7872250000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.8821766866115552</c:v>
+                  <c:v>1.7872250000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.8821766866115552</c:v>
+                  <c:v>1.7872250000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.7979001185543215</c:v>
+                  <c:v>1.7072000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.8259923079067326</c:v>
+                  <c:v>1.7338749999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.9102688759639663</c:v>
+                  <c:v>1.8138999999999998</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.6012547930874428</c:v>
+                  <c:v>1.5204749999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,179 +728,182 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Example data'!$A$8:$A$64</c:f>
+              <c:f>'Example data'!$A$7:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
@@ -905,180 +911,183 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Example data'!$E$8:$E$64</c:f>
+              <c:f>'Example data'!$E$7:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>0.24563595699671184</c:v>
+                  <c:v>0.10249724081198579</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45806341449239524</c:v>
+                  <c:v>0.30950404339979726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64177196127768699</c:v>
+                  <c:v>0.49018033771641334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80064422082374653</c:v>
+                  <c:v>0.64787526812401208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93803790933171816</c:v>
+                  <c:v>0.78551198006962808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.05685680002895</c:v>
+                  <c:v>0.90564180558929275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1596120935204821</c:v>
+                  <c:v>1.0104915566142025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2484754912392497</c:v>
+                  <c:v>1.1020048027412932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3253250936860046</c:v>
+                  <c:v>1.1818778986223499</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3917850935040963</c:v>
+                  <c:v>1.2515914288009702</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4492601022900036</c:v>
+                  <c:v>1.3124376528812618</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.498964836626173</c:v>
+                  <c:v>1.3655444597714468</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.541949790741308</c:v>
+                  <c:v>1.4118962750352788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5791234383818646</c:v>
+                  <c:v>1.452352308904818</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6112714331244651</c:v>
+                  <c:v>1.4876624832127141</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6390732129219014</c:v>
+                  <c:v>1.5184813324769464</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6631163598146967</c:v>
+                  <c:v>1.5453801368184212</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.683909018296289</c:v>
+                  <c:v>1.568857511615821</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7018906347901634</c:v>
+                  <c:v>1.5893486501950818</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7174412452144645</c:v>
+                  <c:v>1.60723339088257</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7308895069239028</c:v>
+                  <c:v>1.6228432579585963</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.742519644781573</c:v>
+                  <c:v>1.6364676070273909</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7525774581637656</c:v>
+                  <c:v>1.6483589887184908</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.761275515853967</c:v>
+                  <c:v>1.6587378301449269</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7687976486185319</c:v>
+                  <c:v>1.6677965208970471</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7753028344132278</c:v>
+                  <c:v>1.6757029793128717</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7809285583332919</c:v>
+                  <c:v>1.6826037651318961</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7857937183185131</c:v>
+                  <c:v>1.6886267962307178</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7900011380245135</c:v>
+                  <c:v>1.693883719799822</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7936397399689954</c:v>
+                  <c:v>1.698471981915356</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7967864248817238</c:v>
+                  <c:v>1.7024766338689379</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7995076969777299</c:v>
+                  <c:v>1.705971908738922</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.801861069503383</c:v>
+                  <c:v>1.7090225974275646</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.8038962802611114</c:v>
+                  <c:v>1.7116852496712938</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8056563428025167</c:v>
+                  <c:v>1.7140092222868635</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.8071784555065176</c:v>
+                  <c:v>1.7160375940844346</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8084947877556155</c:v>
+                  <c:v>1.7178079644070523</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8096331598258704</c:v>
+                  <c:v>1.7193531500988268</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8106176308598552</c:v>
+                  <c:v>1.7207017938213076</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8114690073492115</c:v>
+                  <c:v>1.7218788949942407</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8122052828734334</c:v>
+                  <c:v>1.7229062732026019</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.8128420183886207</c:v>
+                  <c:v>1.7238029726599526</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8133926711034845</c:v>
+                  <c:v>1.7245856152255326</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.8138688788933039</c:v>
+                  <c:v>1.7252687085188723</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.8142807062628301</c:v>
+                  <c:v>1.7258649148433518</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.8146368570564892</c:v>
+                  <c:v>1.7263852859036672</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.81494485841145</c:v>
+                  <c:v>1.7268394676680925</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.8152112198413461</c:v>
+                  <c:v>1.7272358791730127</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.8154415708128391</c:v>
+                  <c:v>1.7275818685841724</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8156407797226586</c:v>
+                  <c:v>1.7278838494075064</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.8158130567896684</c:v>
+                  <c:v>1.7281474193744473</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.8159620430365402</c:v>
+                  <c:v>1.7283774642054612</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.8160908872416466</c:v>
+                  <c:v>1.7285782481752376</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.8162023124875204</c:v>
+                  <c:v>1.7287534931583197</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.8162986737123636</c:v>
+                  <c:v>1.7289064476204197</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.8163820074809411</c:v>
+                  <c:v>1.7290399468342905</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.8164540750267473</c:v>
+                  <c:v>1.7291564654363598</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7292581632983512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,16 +1820,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>260546</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>68607</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>248896</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>274949</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>52371</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>624492</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64021</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1877,16 +1886,19 @@
           <cell r="D7">
             <v>0</v>
           </cell>
+          <cell r="E7">
+            <v>0.10249724081198579</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
             <v>2</v>
           </cell>
           <cell r="D8">
-            <v>0.61802816575304798</v>
+            <v>0.58684999999999998</v>
           </cell>
           <cell r="E8">
-            <v>0.24563595699671184</v>
+            <v>0.30950404339979726</v>
           </cell>
         </row>
         <row r="9">
@@ -1894,10 +1906,10 @@
             <v>4</v>
           </cell>
           <cell r="D9">
-            <v>0.61802816575304798</v>
+            <v>0.58684999999999998</v>
           </cell>
           <cell r="E9">
-            <v>0.45806341449239524</v>
+            <v>0.49018033771641334</v>
           </cell>
         </row>
         <row r="10">
@@ -1905,10 +1917,10 @@
             <v>6</v>
           </cell>
           <cell r="D10">
-            <v>0.67421254445787049</v>
+            <v>0.64019999999999999</v>
           </cell>
           <cell r="E10">
-            <v>0.64177196127768699</v>
+            <v>0.64787526812401208</v>
           </cell>
         </row>
         <row r="11">
@@ -1916,10 +1928,10 @@
             <v>8</v>
           </cell>
           <cell r="D11">
-            <v>0.67421254445787049</v>
+            <v>0.64019999999999999</v>
           </cell>
           <cell r="E11">
-            <v>0.80064422082374653</v>
+            <v>0.78551198006962808</v>
           </cell>
         </row>
         <row r="12">
@@ -1927,10 +1939,10 @@
             <v>10</v>
           </cell>
           <cell r="D12">
-            <v>0.89895005927716076</v>
+            <v>0.85360000000000003</v>
           </cell>
           <cell r="E12">
-            <v>0.93803790933171816</v>
+            <v>0.90564180558929275</v>
           </cell>
         </row>
         <row r="13">
@@ -1938,10 +1950,10 @@
             <v>12</v>
           </cell>
           <cell r="D13">
-            <v>0.89895005927716076</v>
+            <v>0.85360000000000003</v>
           </cell>
           <cell r="E13">
-            <v>1.05685680002895</v>
+            <v>1.0104915566142025</v>
           </cell>
         </row>
         <row r="14">
@@ -1949,10 +1961,10 @@
             <v>14</v>
           </cell>
           <cell r="D14">
-            <v>1.0113188166868059</v>
+            <v>0.96030000000000004</v>
           </cell>
           <cell r="E14">
-            <v>1.1596120935204821</v>
+            <v>1.1020048027412932</v>
           </cell>
         </row>
         <row r="15">
@@ -1960,10 +1972,10 @@
             <v>16</v>
           </cell>
           <cell r="D15">
-            <v>0.98322662733439448</v>
+            <v>0.93362499999999993</v>
           </cell>
           <cell r="E15">
-            <v>1.2484754912392497</v>
+            <v>1.1818778986223499</v>
           </cell>
         </row>
         <row r="16">
@@ -1971,10 +1983,10 @@
             <v>18</v>
           </cell>
           <cell r="D16">
-            <v>1.348425088915741</v>
+            <v>1.2804</v>
           </cell>
           <cell r="E16">
-            <v>1.3253250936860046</v>
+            <v>1.2515914288009702</v>
           </cell>
         </row>
         <row r="17">
@@ -1982,10 +1994,10 @@
             <v>20</v>
           </cell>
           <cell r="D17">
-            <v>1.3765172782681525</v>
+            <v>1.3070750000000002</v>
           </cell>
           <cell r="E17">
-            <v>1.3917850935040963</v>
+            <v>1.3124376528812618</v>
           </cell>
         </row>
         <row r="18">
@@ -1993,10 +2005,10 @@
             <v>22</v>
           </cell>
           <cell r="D18">
-            <v>1.5169782250302086</v>
+            <v>1.4404499999999998</v>
           </cell>
           <cell r="E18">
-            <v>1.4492601022900036</v>
+            <v>1.3655444597714468</v>
           </cell>
         </row>
         <row r="19">
@@ -2004,10 +2016,10 @@
             <v>24</v>
           </cell>
           <cell r="D19">
-            <v>1.5731626037350313</v>
+            <v>1.4938</v>
           </cell>
           <cell r="E19">
-            <v>1.498964836626173</v>
+            <v>1.4118962750352788</v>
           </cell>
         </row>
         <row r="20">
@@ -2015,10 +2027,10 @@
             <v>26</v>
           </cell>
           <cell r="D20">
-            <v>1.6012547930874428</v>
+            <v>1.5204749999999998</v>
           </cell>
           <cell r="E20">
-            <v>1.541949790741308</v>
+            <v>1.452352308904818</v>
           </cell>
         </row>
         <row r="21">
@@ -2026,10 +2038,10 @@
             <v>28</v>
           </cell>
           <cell r="D21">
-            <v>1.6855313611446765</v>
+            <v>1.6004999999999998</v>
           </cell>
           <cell r="E21">
-            <v>1.5791234383818646</v>
+            <v>1.4876624832127141</v>
           </cell>
         </row>
         <row r="22">
@@ -2037,10 +2049,10 @@
             <v>30</v>
           </cell>
           <cell r="D22">
-            <v>1.6855313611446765</v>
+            <v>1.6004999999999998</v>
           </cell>
           <cell r="E22">
-            <v>1.6112714331244651</v>
+            <v>1.5184813324769464</v>
           </cell>
         </row>
         <row r="23">
@@ -2048,10 +2060,10 @@
             <v>32</v>
           </cell>
           <cell r="D23">
-            <v>1.7417157398494989</v>
+            <v>1.6538499999999998</v>
           </cell>
           <cell r="E23">
-            <v>1.6390732129219014</v>
+            <v>1.5453801368184212</v>
           </cell>
         </row>
         <row r="24">
@@ -2059,10 +2071,10 @@
             <v>34</v>
           </cell>
           <cell r="D24">
-            <v>1.6855313611446765</v>
+            <v>1.6004999999999998</v>
           </cell>
           <cell r="E24">
-            <v>1.6631163598146967</v>
+            <v>1.568857511615821</v>
           </cell>
         </row>
         <row r="25">
@@ -2070,10 +2082,10 @@
             <v>36</v>
           </cell>
           <cell r="D25">
-            <v>1.6855313611446765</v>
+            <v>1.6004999999999998</v>
           </cell>
           <cell r="E25">
-            <v>1.683909018296289</v>
+            <v>1.5893486501950818</v>
           </cell>
         </row>
         <row r="26">
@@ -2081,10 +2093,10 @@
             <v>38</v>
           </cell>
           <cell r="D26">
-            <v>1.6855313611446765</v>
+            <v>1.6004999999999998</v>
           </cell>
           <cell r="E26">
-            <v>1.7018906347901634</v>
+            <v>1.60723339088257</v>
           </cell>
         </row>
         <row r="27">
@@ -2092,10 +2104,10 @@
             <v>40</v>
           </cell>
           <cell r="D27">
-            <v>1.7417157398494989</v>
+            <v>1.6538499999999998</v>
           </cell>
           <cell r="E27">
-            <v>1.7174412452144645</v>
+            <v>1.6228432579585963</v>
           </cell>
         </row>
         <row r="28">
@@ -2103,10 +2115,10 @@
             <v>42</v>
           </cell>
           <cell r="D28">
-            <v>1.7417157398494989</v>
+            <v>1.6538499999999998</v>
           </cell>
           <cell r="E28">
-            <v>1.7308895069239028</v>
+            <v>1.6364676070273909</v>
           </cell>
         </row>
         <row r="29">
@@ -2114,10 +2126,10 @@
             <v>44</v>
           </cell>
           <cell r="D29">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E29">
-            <v>1.742519644781573</v>
+            <v>1.6483589887184908</v>
           </cell>
         </row>
         <row r="30">
@@ -2125,10 +2137,10 @@
             <v>46</v>
           </cell>
           <cell r="D30">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E30">
-            <v>1.7525774581637656</v>
+            <v>1.6587378301449269</v>
           </cell>
         </row>
         <row r="31">
@@ -2136,10 +2148,10 @@
             <v>48</v>
           </cell>
           <cell r="D31">
-            <v>1.8821766866115552</v>
+            <v>1.7872250000000001</v>
           </cell>
           <cell r="E31">
-            <v>1.761275515853967</v>
+            <v>1.6677965208970471</v>
           </cell>
         </row>
         <row r="32">
@@ -2147,10 +2159,10 @@
             <v>50</v>
           </cell>
           <cell r="D32">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E32">
-            <v>1.7687976486185319</v>
+            <v>1.6757029793128717</v>
           </cell>
         </row>
         <row r="33">
@@ -2158,10 +2170,10 @@
             <v>52</v>
           </cell>
           <cell r="D33">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E33">
-            <v>1.7753028344132278</v>
+            <v>1.6826037651318961</v>
           </cell>
         </row>
         <row r="34">
@@ -2169,10 +2181,10 @@
             <v>54</v>
           </cell>
           <cell r="D34">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E34">
-            <v>1.7809285583332919</v>
+            <v>1.6886267962307178</v>
           </cell>
         </row>
         <row r="35">
@@ -2180,10 +2192,10 @@
             <v>56</v>
           </cell>
           <cell r="D35">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E35">
-            <v>1.7857937183185131</v>
+            <v>1.693883719799822</v>
           </cell>
         </row>
         <row r="36">
@@ -2191,10 +2203,10 @@
             <v>58</v>
           </cell>
           <cell r="D36">
-            <v>1.7417157398494989</v>
+            <v>1.6538499999999998</v>
           </cell>
           <cell r="E36">
-            <v>1.7900011380245135</v>
+            <v>1.698471981915356</v>
           </cell>
         </row>
         <row r="37">
@@ -2202,10 +2214,10 @@
             <v>60</v>
           </cell>
           <cell r="D37">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E37">
-            <v>1.7936397399689954</v>
+            <v>1.7024766338689379</v>
           </cell>
         </row>
         <row r="38">
@@ -2213,10 +2225,10 @@
             <v>62</v>
           </cell>
           <cell r="D38">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E38">
-            <v>1.7967864248817238</v>
+            <v>1.705971908738922</v>
           </cell>
         </row>
         <row r="39">
@@ -2224,10 +2236,10 @@
             <v>64</v>
           </cell>
           <cell r="D39">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E39">
-            <v>1.7995076969777299</v>
+            <v>1.7090225974275646</v>
           </cell>
         </row>
         <row r="40">
@@ -2235,10 +2247,10 @@
             <v>66</v>
           </cell>
           <cell r="D40">
-            <v>1.8821766866115552</v>
+            <v>1.7872250000000001</v>
           </cell>
           <cell r="E40">
-            <v>1.801861069503383</v>
+            <v>1.7116852496712938</v>
           </cell>
         </row>
         <row r="41">
@@ -2246,10 +2258,10 @@
             <v>68</v>
           </cell>
           <cell r="D41">
-            <v>1.6855313611446765</v>
+            <v>1.6004999999999998</v>
           </cell>
           <cell r="E41">
-            <v>1.8038962802611114</v>
+            <v>1.7140092222868635</v>
           </cell>
         </row>
         <row r="42">
@@ -2257,10 +2269,10 @@
             <v>70</v>
           </cell>
           <cell r="D42">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E42">
-            <v>1.8056563428025167</v>
+            <v>1.7160375940844346</v>
           </cell>
         </row>
         <row r="43">
@@ -2268,10 +2280,10 @@
             <v>72</v>
           </cell>
           <cell r="D43">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E43">
-            <v>1.8071784555065176</v>
+            <v>1.7178079644070523</v>
           </cell>
         </row>
         <row r="44">
@@ -2279,10 +2291,10 @@
             <v>74</v>
           </cell>
           <cell r="D44">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E44">
-            <v>1.8084947877556155</v>
+            <v>1.7193531500988268</v>
           </cell>
         </row>
         <row r="45">
@@ -2290,10 +2302,10 @@
             <v>76</v>
           </cell>
           <cell r="D45">
-            <v>1.7417157398494989</v>
+            <v>1.6538499999999998</v>
           </cell>
           <cell r="E45">
-            <v>1.8096331598258704</v>
+            <v>1.7207017938213076</v>
           </cell>
         </row>
         <row r="46">
@@ -2301,10 +2313,10 @@
             <v>78</v>
           </cell>
           <cell r="D46">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E46">
-            <v>1.8106176308598552</v>
+            <v>1.7218788949942407</v>
           </cell>
         </row>
         <row r="47">
@@ -2312,10 +2324,10 @@
             <v>80</v>
           </cell>
           <cell r="D47">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E47">
-            <v>1.8114690073492115</v>
+            <v>1.7229062732026019</v>
           </cell>
         </row>
         <row r="48">
@@ -2323,10 +2335,10 @@
             <v>82</v>
           </cell>
           <cell r="D48">
-            <v>1.6855313611446765</v>
+            <v>1.6004999999999998</v>
           </cell>
           <cell r="E48">
-            <v>1.8122052828734334</v>
+            <v>1.7238029726599526</v>
           </cell>
         </row>
         <row r="49">
@@ -2334,10 +2346,10 @@
             <v>84</v>
           </cell>
           <cell r="D49">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E49">
-            <v>1.8128420183886207</v>
+            <v>1.7245856152255326</v>
           </cell>
         </row>
         <row r="50">
@@ -2345,10 +2357,10 @@
             <v>86</v>
           </cell>
           <cell r="D50">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E50">
-            <v>1.8133926711034845</v>
+            <v>1.7252687085188723</v>
           </cell>
         </row>
         <row r="51">
@@ -2356,10 +2368,10 @@
             <v>88</v>
           </cell>
           <cell r="D51">
-            <v>1.7417157398494989</v>
+            <v>1.6538499999999998</v>
           </cell>
           <cell r="E51">
-            <v>1.8138688788933039</v>
+            <v>1.7258649148433518</v>
           </cell>
         </row>
         <row r="52">
@@ -2367,10 +2379,10 @@
             <v>90</v>
           </cell>
           <cell r="D52">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E52">
-            <v>1.8142807062628301</v>
+            <v>1.7263852859036672</v>
           </cell>
         </row>
         <row r="53">
@@ -2378,10 +2390,10 @@
             <v>92</v>
           </cell>
           <cell r="D53">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E53">
-            <v>1.8146368570564892</v>
+            <v>1.7268394676680925</v>
           </cell>
         </row>
         <row r="54">
@@ -2389,10 +2401,10 @@
             <v>94</v>
           </cell>
           <cell r="D54">
-            <v>1.8821766866115552</v>
+            <v>1.7872250000000001</v>
           </cell>
           <cell r="E54">
-            <v>1.81494485841145</v>
+            <v>1.7272358791730127</v>
           </cell>
         </row>
         <row r="55">
@@ -2400,10 +2412,10 @@
             <v>96</v>
           </cell>
           <cell r="D55">
-            <v>1.5731626037350313</v>
+            <v>1.4938</v>
           </cell>
           <cell r="E55">
-            <v>1.8152112198413461</v>
+            <v>1.7275818685841724</v>
           </cell>
         </row>
         <row r="56">
@@ -2411,10 +2423,10 @@
             <v>98</v>
           </cell>
           <cell r="D56">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E56">
-            <v>1.8154415708128391</v>
+            <v>1.7278838494075064</v>
           </cell>
         </row>
         <row r="57">
@@ -2422,10 +2434,10 @@
             <v>100</v>
           </cell>
           <cell r="D57">
-            <v>1.8821766866115552</v>
+            <v>1.7872250000000001</v>
           </cell>
           <cell r="E57">
-            <v>1.8156407797226586</v>
+            <v>1.7281474193744473</v>
           </cell>
         </row>
         <row r="58">
@@ -2433,10 +2445,10 @@
             <v>102</v>
           </cell>
           <cell r="D58">
-            <v>1.8821766866115552</v>
+            <v>1.7872250000000001</v>
           </cell>
           <cell r="E58">
-            <v>1.8158130567896684</v>
+            <v>1.7283774642054612</v>
           </cell>
         </row>
         <row r="59">
@@ -2444,10 +2456,10 @@
             <v>104</v>
           </cell>
           <cell r="D59">
-            <v>1.8821766866115552</v>
+            <v>1.7872250000000001</v>
           </cell>
           <cell r="E59">
-            <v>1.8159620430365402</v>
+            <v>1.7285782481752376</v>
           </cell>
         </row>
         <row r="60">
@@ -2455,10 +2467,10 @@
             <v>106</v>
           </cell>
           <cell r="D60">
-            <v>1.7979001185543215</v>
+            <v>1.7072000000000001</v>
           </cell>
           <cell r="E60">
-            <v>1.8160908872416466</v>
+            <v>1.7287534931583197</v>
           </cell>
         </row>
         <row r="61">
@@ -2466,10 +2478,10 @@
             <v>108</v>
           </cell>
           <cell r="D61">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E61">
-            <v>1.8162023124875204</v>
+            <v>1.7289064476204197</v>
           </cell>
         </row>
         <row r="62">
@@ -2477,10 +2489,10 @@
             <v>110</v>
           </cell>
           <cell r="D62">
-            <v>1.8259923079067326</v>
+            <v>1.7338749999999998</v>
           </cell>
           <cell r="E62">
-            <v>1.8162986737123636</v>
+            <v>1.7290399468342905</v>
           </cell>
         </row>
         <row r="63">
@@ -2488,10 +2500,10 @@
             <v>112</v>
           </cell>
           <cell r="D63">
-            <v>1.9102688759639663</v>
+            <v>1.8138999999999998</v>
           </cell>
           <cell r="E63">
-            <v>1.8163820074809411</v>
+            <v>1.7291564654363598</v>
           </cell>
         </row>
         <row r="64">
@@ -2499,16 +2511,17 @@
             <v>114</v>
           </cell>
           <cell r="D64">
-            <v>1.6012547930874428</v>
-          </cell>
-          <cell r="E64">
-            <v>1.8164540750267473</v>
+            <v>1.5204749999999998</v>
           </cell>
         </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2811,7 +2824,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2824,70 +2837,76 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <v>0.10249724081198579</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2">
-        <v>1.816915075245171</v>
+        <v>1.6274587591044538</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>970</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="2">
-        <v>7.2625018337625954E-2</v>
+        <v>6.8022327270694002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>47.477609639759834</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="5">
         <f>SUM(F7:F64)</f>
-        <v>0.55471090850903426</v>
+        <v>0.47519210159669201</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2895,23 +2914,23 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <f>B7/32*44</f>
         <v>0</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D64" si="0">C7*$B$3/1000/$B$4</f>
+        <f>C7*$B$3/$B$4</f>
         <v>0</v>
       </c>
       <c r="E7" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A7))</f>
-        <v>0</v>
+        <f>$E$1+$E$2*(1-EXP(-$E$3*A7))</f>
+        <v>0.10249724081198579</v>
       </c>
       <c r="F7" s="5">
         <f>(D7-E7)^2</f>
-        <v>0</v>
+        <v>1.0505684374070205E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2919,23 +2938,23 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C64" si="1">B8/32*44</f>
+        <f t="shared" ref="C8:C64" si="0">B8/32*44</f>
         <v>30.25</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
-        <v>0.61802816575304798</v>
+        <f t="shared" ref="D8:D64" si="1">C8*$B$3/$B$4</f>
+        <v>0.58684999999999998</v>
       </c>
       <c r="E8" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A8))</f>
-        <v>0.24563595699671184</v>
+        <f t="shared" ref="E8:E64" si="2">$E$1+$E$2*(1-EXP(-$E$3*A8))</f>
+        <v>0.30950404339979726</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" ref="F8:F64" si="2">(D8-E8)^2</f>
-        <v>0.13867595714242265</v>
+        <f t="shared" ref="F8:F64" si="3">(D8-E8)^2</f>
+        <v>7.6920779642481535E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2943,23 +2962,23 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30.25</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.61802816575304798</v>
+        <f t="shared" si="1"/>
+        <v>0.58684999999999998</v>
       </c>
       <c r="E9" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A9))</f>
-        <v>0.45806341449239524</v>
+        <f t="shared" si="2"/>
+        <v>0.49018033771641334</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>2.5588721645882502E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.3450236060226947E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2967,23 +2986,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67421254445787049</v>
+        <f t="shared" si="1"/>
+        <v>0.64019999999999999</v>
       </c>
       <c r="E10" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A10))</f>
-        <v>0.64177196127768699</v>
+        <f t="shared" si="2"/>
+        <v>0.64787526812401208</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0523914370704048E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.8909740775476084E-5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -2991,23 +3010,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.67421254445787049</v>
+        <f t="shared" si="1"/>
+        <v>0.64019999999999999</v>
       </c>
       <c r="E11" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A11))</f>
-        <v>0.80064422082374653</v>
+        <f t="shared" si="2"/>
+        <v>0.78551198006962808</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5984968788685619E-2</v>
+        <f>(D11-E11)^2</f>
+        <v>2.1115571551755991E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3015,23 +3034,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
-        <v>0.89895005927716076</v>
+        <f t="shared" si="1"/>
+        <v>0.85360000000000003</v>
       </c>
       <c r="E12" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A12))</f>
-        <v>0.93803790933171816</v>
+        <f t="shared" si="2"/>
+        <v>0.90564180558929275</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>1.5278600218875625E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.7083495289937391E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3039,23 +3058,23 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.89895005927716076</v>
+        <f t="shared" si="1"/>
+        <v>0.85360000000000003</v>
       </c>
       <c r="E13" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A13))</f>
-        <v>1.05685680002895</v>
+        <f t="shared" si="2"/>
+        <v>1.0104915566142025</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="2"/>
-        <v>2.4934538774852775E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.4614960536827511E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3063,23 +3082,23 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
-        <v>1.0113188166868059</v>
+        <f t="shared" si="1"/>
+        <v>0.96030000000000004</v>
       </c>
       <c r="E14" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A14))</f>
-        <v>1.1596120935204821</v>
+        <f t="shared" si="2"/>
+        <v>1.1020048027412932</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="2"/>
-        <v>2.199089595406933E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0080251119948805E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3087,23 +3106,23 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48.125</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.98322662733439448</v>
+        <f t="shared" si="1"/>
+        <v>0.93362499999999993</v>
       </c>
       <c r="E15" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A15))</f>
-        <v>1.2484754912392497</v>
+        <f t="shared" si="2"/>
+        <v>1.1818778986223499</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="2"/>
-        <v>7.0356959802816421E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.162950167439879E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3111,23 +3130,23 @@
         <v>18</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
-        <v>1.348425088915741</v>
+        <f t="shared" si="1"/>
+        <v>1.2804</v>
       </c>
       <c r="E16" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A16))</f>
-        <v>1.3253250936860046</v>
+        <f t="shared" si="2"/>
+        <v>1.2515914288009702</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="2"/>
-        <v>5.3360977961384353E-4</v>
+        <f t="shared" si="3"/>
+        <v>8.2993377452956921E-4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3135,23 +3154,23 @@
         <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>67.375</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3765172782681525</v>
+        <f t="shared" si="1"/>
+        <v>1.3070750000000002</v>
       </c>
       <c r="E17" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A17))</f>
-        <v>1.3917850935040963</v>
+        <f t="shared" si="2"/>
+        <v>1.3124376528812618</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3310618207891709E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.8758045924903201E-5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3159,23 +3178,23 @@
         <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74.25</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
-        <v>1.5169782250302086</v>
+        <f t="shared" si="1"/>
+        <v>1.4404499999999998</v>
       </c>
       <c r="E18" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A18))</f>
-        <v>1.4492601022900036</v>
+        <f t="shared" si="2"/>
+        <v>1.3655444597714468</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="2"/>
-        <v>4.5857441474574769E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.6108399569313721E-3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3183,23 +3202,23 @@
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>1.5731626037350313</v>
+        <f t="shared" si="1"/>
+        <v>1.4938</v>
       </c>
       <c r="E19" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A19))</f>
-        <v>1.498964836626173</v>
+        <f t="shared" si="2"/>
+        <v>1.4118962750352788</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="2"/>
-        <v>5.5053086439403719E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.708220163096695E-3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3207,23 +3226,23 @@
         <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>78.375</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6012547930874428</v>
+        <f t="shared" si="1"/>
+        <v>1.5204749999999998</v>
       </c>
       <c r="E20" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A20))</f>
-        <v>1.541949790741308</v>
+        <f t="shared" si="2"/>
+        <v>1.452352308904818</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="2"/>
-        <v>3.517083303275052E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.6407010420495571E-3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3231,23 +3250,23 @@
         <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6855313611446765</v>
+        <f t="shared" si="1"/>
+        <v>1.6004999999999998</v>
       </c>
       <c r="E21" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A21))</f>
-        <v>1.5791234383818646</v>
+        <f t="shared" si="2"/>
+        <v>1.4876624832127141</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1322646026696534E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2732305194720983E-2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3255,23 +3274,23 @@
         <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6855313611446765</v>
+        <f t="shared" si="1"/>
+        <v>1.6004999999999998</v>
       </c>
       <c r="E22" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A22))</f>
-        <v>1.6112714331244651</v>
+        <f t="shared" si="2"/>
+        <v>1.5184813324769464</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="2"/>
-        <v>5.5145369095669812E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.7270618222571785E-3</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3279,23 +3298,23 @@
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7417157398494989</v>
+        <f t="shared" si="1"/>
+        <v>1.6538499999999998</v>
       </c>
       <c r="E23" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A23))</f>
-        <v>1.6390732129219014</v>
+        <f t="shared" si="2"/>
+        <v>1.5453801368184212</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="2"/>
-        <v>1.0535488334082568E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1765711218630378E-2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3303,23 +3322,23 @@
         <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6855313611446765</v>
+        <f t="shared" si="1"/>
+        <v>1.6004999999999998</v>
       </c>
       <c r="E24" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A24))</f>
-        <v>1.6631163598146967</v>
+        <f t="shared" si="2"/>
+        <v>1.568857511615821</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="2"/>
-        <v>5.0243228462299426E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.0012470711428917E-3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3327,23 +3346,23 @@
         <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6855313611446765</v>
+        <f t="shared" si="1"/>
+        <v>1.6004999999999998</v>
       </c>
       <c r="E25" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A25))</f>
-        <v>1.683909018296289</v>
+        <f t="shared" si="2"/>
+        <v>1.5893486501950818</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="2"/>
-        <v>2.63199631771397E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.2435260247164591E-4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3351,23 +3370,23 @@
         <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6855313611446765</v>
+        <f t="shared" si="1"/>
+        <v>1.6004999999999998</v>
       </c>
       <c r="E26" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A26))</f>
-        <v>1.7018906347901634</v>
+        <f t="shared" si="2"/>
+        <v>1.60723339088257</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="2"/>
-        <v>2.6762583420792384E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.5338552777479354E-5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3375,23 +3394,23 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7417157398494989</v>
+        <f t="shared" si="1"/>
+        <v>1.6538499999999998</v>
       </c>
       <c r="E27" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A27))</f>
-        <v>1.7174412452144645</v>
+        <f t="shared" si="2"/>
+        <v>1.6228432579585963</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="2"/>
-        <v>5.8925108978631353E-4</v>
+        <f t="shared" si="3"/>
+        <v>9.6141805202214073E-4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3399,23 +3418,23 @@
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7417157398494989</v>
+        <f t="shared" si="1"/>
+        <v>1.6538499999999998</v>
       </c>
       <c r="E28" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A28))</f>
-        <v>1.7308895069239028</v>
+        <f t="shared" si="2"/>
+        <v>1.6364676070273909</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="2"/>
-        <v>1.172073193592621E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.0214758545420351E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3423,23 +3442,23 @@
         <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E29" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A29))</f>
-        <v>1.742519644781573</v>
+        <f t="shared" si="2"/>
+        <v>1.6483589887184908</v>
       </c>
       <c r="F29" s="5">
-        <f t="shared" si="2"/>
-        <v>6.9676854892063893E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.3129881854991719E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3447,23 +3466,23 @@
         <v>46</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E30" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A30))</f>
-        <v>1.7525774581637656</v>
+        <f t="shared" si="2"/>
+        <v>1.6587378301449269</v>
       </c>
       <c r="F30" s="5">
-        <f t="shared" si="2"/>
-        <v>5.3897401627824174E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.6455942938300769E-3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3471,23 +3490,23 @@
         <v>48</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.125</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8821766866115552</v>
+        <f t="shared" si="1"/>
+        <v>1.7872250000000001</v>
       </c>
       <c r="E31" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A31))</f>
-        <v>1.761275515853967</v>
+        <f t="shared" si="2"/>
+        <v>1.6677965208970471</v>
       </c>
       <c r="F31" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4617093090555503E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.4263161620844471E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3495,23 +3514,23 @@
         <v>50</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E32" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A32))</f>
-        <v>1.7687976486185319</v>
+        <f t="shared" si="2"/>
+        <v>1.6757029793128717</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" si="2"/>
-        <v>8.4695375636353615E-4</v>
+        <f t="shared" si="3"/>
+        <v>9.9206231216539069E-4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3519,23 +3538,23 @@
         <v>52</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E33" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A33))</f>
-        <v>1.7753028344132278</v>
+        <f t="shared" si="2"/>
+        <v>1.6826037651318961</v>
       </c>
       <c r="F33" s="5">
-        <f t="shared" si="2"/>
-        <v>5.1063725055332677E-4</v>
+        <f t="shared" si="3"/>
+        <v>6.0497476968693093E-4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3543,23 +3562,23 @@
         <v>54</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E34" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A34))</f>
-        <v>1.7809285583332919</v>
+        <f t="shared" si="2"/>
+        <v>1.6886267962307178</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="2"/>
-        <v>2.8803385633603549E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.4496389825528173E-4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3567,23 +3586,23 @@
         <v>56</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E35" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A35))</f>
-        <v>1.7857937183185131</v>
+        <f t="shared" si="2"/>
+        <v>1.693883719799822</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="2"/>
-        <v>1.4656492666958277E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.7732331836965408E-4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3591,23 +3610,23 @@
         <v>58</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7417157398494989</v>
+        <f t="shared" si="1"/>
+        <v>1.6538499999999998</v>
       </c>
       <c r="E36" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A36))</f>
-        <v>1.7900011380245135</v>
+        <f t="shared" si="2"/>
+        <v>1.698471981915356</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3314796769197078E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.9911212700543719E-3</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3615,23 +3634,23 @@
         <v>60</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E37" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A37))</f>
-        <v>1.7936397399689954</v>
+        <f t="shared" si="2"/>
+        <v>1.7024766338689379</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="2"/>
-        <v>1.8150825690305476E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.231018760806519E-5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3639,23 +3658,23 @@
         <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E38" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A38))</f>
-        <v>1.7967864248817238</v>
+        <f t="shared" si="2"/>
+        <v>1.705971908738922</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="2"/>
-        <v>1.2403135963842118E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.5082081455362377E-6</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3663,23 +3682,23 @@
         <v>64</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E39" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A39))</f>
-        <v>1.7995076969777299</v>
+        <f t="shared" si="2"/>
+        <v>1.7090225974275646</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="2"/>
-        <v>2.5843083874082945E-6</v>
+        <f t="shared" si="3"/>
+        <v>3.3218613829648084E-6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3687,23 +3706,23 @@
         <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.125</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8821766866115552</v>
+        <f t="shared" si="1"/>
+        <v>1.7872250000000001</v>
       </c>
       <c r="E40" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A40))</f>
-        <v>1.801861069503383</v>
+        <f t="shared" si="2"/>
+        <v>1.7116852496712938</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="2"/>
-        <v>6.4505983514665322E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.7062538797232835E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3711,23 +3730,23 @@
         <v>68</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6855313611446765</v>
+        <f t="shared" si="1"/>
+        <v>1.6004999999999998</v>
       </c>
       <c r="E41" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A41))</f>
-        <v>1.8038962802611114</v>
+        <f t="shared" si="2"/>
+        <v>1.7140092222868635</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="2"/>
-        <v>1.401025407744017E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.2884343544168626E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -3735,23 +3754,23 @@
         <v>70</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E42" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A42))</f>
-        <v>1.8056563428025167</v>
+        <f t="shared" si="2"/>
+        <v>1.7160375940844346</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="2"/>
-        <v>4.1355147671988558E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.1817304979664266E-4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3759,23 +3778,23 @@
         <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E43" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A43))</f>
-        <v>1.8071784555065176</v>
+        <f t="shared" si="2"/>
+        <v>1.7178079644070523</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="2"/>
-        <v>8.6087536598486542E-5</v>
+        <f t="shared" si="3"/>
+        <v>1.1252890886128741E-4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3783,23 +3802,23 @@
         <v>74</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E44" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A44))</f>
-        <v>1.8084947877556155</v>
+        <f t="shared" si="2"/>
+        <v>1.7193531500988268</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="2"/>
-        <v>1.122470154848461E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.4769905732461342E-4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -3807,23 +3826,23 @@
         <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7417157398494989</v>
+        <f t="shared" si="1"/>
+        <v>1.6538499999999998</v>
       </c>
       <c r="E45" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A45))</f>
-        <v>1.8096331598258704</v>
+        <f t="shared" si="2"/>
+        <v>1.7207017938213076</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="2"/>
-        <v>4.6127759362468218E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.4691623371266465E-3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -3831,23 +3850,23 @@
         <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E46" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A46))</f>
-        <v>1.8106176308598552</v>
+        <f t="shared" si="2"/>
+        <v>1.7218788949942407</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6173511924139956E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.1546995825194433E-4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -3855,23 +3874,23 @@
         <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E47" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A47))</f>
-        <v>1.8114690073492115</v>
+        <f t="shared" si="2"/>
+        <v>1.7229062732026019</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1092625908409435E-4</v>
+        <f t="shared" si="3"/>
+        <v>1.20312967555955E-4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -3879,23 +3898,23 @@
         <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6855313611446765</v>
+        <f t="shared" si="1"/>
+        <v>1.6004999999999998</v>
       </c>
       <c r="E48" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A48))</f>
-        <v>1.8122052828734334</v>
+        <f t="shared" si="2"/>
+        <v>1.7238029726599526</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6046282446143232E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.5203623066781073E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3903,23 +3922,23 @@
         <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E49" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A49))</f>
-        <v>1.8128420183886207</v>
+        <f t="shared" si="2"/>
+        <v>1.7245856152255326</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2326037065822945E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.0225961677026754E-4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3927,23 +3946,23 @@
         <v>86</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E50" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A50))</f>
-        <v>1.8133926711034845</v>
+        <f t="shared" si="2"/>
+        <v>1.7252687085188723</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="2"/>
-        <v>2.4001918448857481E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.2647822753996522E-4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -3951,23 +3970,23 @@
         <v>88</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>85.25</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7417157398494989</v>
+        <f t="shared" si="1"/>
+        <v>1.6538499999999998</v>
       </c>
       <c r="E51" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A51))</f>
-        <v>1.8138688788933039</v>
+        <f t="shared" si="2"/>
+        <v>1.7258649148433518</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="2"/>
-        <v>5.2060754738746644E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.1861479598952383E-3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -3975,23 +3994,23 @@
         <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E52" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A52))</f>
-        <v>1.8142807062628301</v>
+        <f t="shared" si="2"/>
+        <v>1.7263852859036672</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="2"/>
-        <v>2.6832365367614262E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.6807519520545108E-4</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3999,23 +4018,23 @@
         <v>92</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E53" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A53))</f>
-        <v>1.8146368570564892</v>
+        <f t="shared" si="2"/>
+        <v>1.7268394676680925</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="2"/>
-        <v>1.2894626401229275E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.9498715193313615E-5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4023,23 +4042,23 @@
         <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.125</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8821766866115552</v>
+        <f t="shared" si="1"/>
+        <v>1.7872250000000001</v>
       </c>
       <c r="E54" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A54))</f>
-        <v>1.81494485841145</v>
+        <f t="shared" si="2"/>
+        <v>1.7272358791730127</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="2"/>
-        <v>4.5201187231284617E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.5986946175948905E-3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4047,23 +4066,23 @@
         <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="0"/>
-        <v>1.5731626037350313</v>
+        <f t="shared" si="1"/>
+        <v>1.4938</v>
       </c>
       <c r="E55" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A55))</f>
-        <v>1.8152112198413461</v>
+        <f t="shared" si="2"/>
+        <v>1.7275818685841724</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="2"/>
-        <v>5.8587532558982205E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.4653962078707242E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4071,23 +4090,23 @@
         <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E56" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A56))</f>
-        <v>1.8154415708128391</v>
+        <f t="shared" si="2"/>
+        <v>1.7278838494075064</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1131805322446102E-4</v>
+        <f t="shared" si="3"/>
+        <v>3.5893885421934546E-5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4095,23 +4114,23 @@
         <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.125</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8821766866115552</v>
+        <f t="shared" si="1"/>
+        <v>1.7872250000000001</v>
       </c>
       <c r="E57" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A57))</f>
-        <v>1.8156407797226586</v>
+        <f t="shared" si="2"/>
+        <v>1.7281474193744473</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="2"/>
-        <v>4.4270269055279258E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4901605325686909E-3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4119,23 +4138,23 @@
         <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.125</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8821766866115552</v>
+        <f t="shared" si="1"/>
+        <v>1.7872250000000001</v>
       </c>
       <c r="E58" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A58))</f>
-        <v>1.8158130567896684</v>
+        <f t="shared" si="2"/>
+        <v>1.7283774642054612</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="2"/>
-        <v>4.4041313631364249E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4630324690895289E-3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4143,23 +4162,23 @@
         <v>104</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>92.125</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8821766866115552</v>
+        <f t="shared" si="1"/>
+        <v>1.7872250000000001</v>
       </c>
       <c r="E59" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A59))</f>
-        <v>1.8159620430365402</v>
+        <f t="shared" si="2"/>
+        <v>1.7285782481752376</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="2"/>
-        <v>4.3843790237662822E-3</v>
+        <f t="shared" si="3"/>
+        <v>3.4394414995952746E-3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4167,23 +4186,23 @@
         <v>106</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="0"/>
-        <v>1.7979001185543215</v>
+        <f t="shared" si="1"/>
+        <v>1.7072000000000001</v>
       </c>
       <c r="E60" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A60))</f>
-        <v>1.8160908872416466</v>
+        <f t="shared" si="2"/>
+        <v>1.7287534931583197</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="2"/>
-        <v>3.3090406543576567E-4</v>
+        <f t="shared" si="3"/>
+        <v>4.6455306732573281E-4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4191,23 +4210,23 @@
         <v>108</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E61" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A61))</f>
-        <v>1.8162023124875204</v>
+        <f t="shared" si="2"/>
+        <v>1.7289064476204197</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="2"/>
-        <v>9.5844010308196177E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.4686512748631671E-5</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4215,23 +4234,23 @@
         <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.375</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8259923079067326</v>
+        <f t="shared" si="1"/>
+        <v>1.7338749999999998</v>
       </c>
       <c r="E62" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A62))</f>
-        <v>1.8162986737123636</v>
+        <f t="shared" si="2"/>
+        <v>1.7290399468342905</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="2"/>
-        <v>9.3966543894239381E-5</v>
+        <f t="shared" si="3"/>
+        <v>2.3377739115235653E-5</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4239,23 +4258,23 @@
         <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>93.5</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="0"/>
-        <v>1.9102688759639663</v>
+        <f t="shared" si="1"/>
+        <v>1.8138999999999998</v>
       </c>
       <c r="E63" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A63))</f>
-        <v>1.8163820074809411</v>
+        <f t="shared" si="2"/>
+        <v>1.7291564654363598</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="2"/>
-        <v>8.8147440735488677E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.1814666503388531E-3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4263,23 +4282,23 @@
         <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>78.375</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6012547930874428</v>
+        <f t="shared" si="1"/>
+        <v>1.5204749999999998</v>
       </c>
       <c r="E64" s="5">
-        <f>$E$2*(1-EXP(-$E$3*A64))</f>
-        <v>1.8164540750267473</v>
+        <f t="shared" si="2"/>
+        <v>1.7292581632983512</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="2"/>
-        <v>4.6310730947192263E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.3590409276866089E-2</v>
       </c>
     </row>
   </sheetData>
